--- a/ルール.xlsx
+++ b/ルール.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\.AKIHIRO\soturon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a4ff7438d9fef08/デスクトップ/卒論/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D472CAC-0F9C-44E0-9DDC-6C4382F40FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{6D472CAC-0F9C-44E0-9DDC-6C4382F40FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE95C5DC-307C-45E5-952C-D423432EEA23}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="-110" windowWidth="17650" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ファイル命名規則</t>
     <rPh sb="4" eb="8">
@@ -81,6 +92,135 @@
       <t>シュベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A01-1_（A01ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>人口</t>
+    <rPh sb="0" eb="2">
+      <t>ジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産業</t>
+    <rPh sb="0" eb="2">
+      <t>サンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人口増減</t>
+    <rPh sb="0" eb="2">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造業</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小売業</t>
+    <rPh sb="0" eb="3">
+      <t>コウリギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林業</t>
+    <rPh sb="0" eb="2">
+      <t>リンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水産業</t>
+    <rPh sb="0" eb="3">
+      <t>スイサンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観光</t>
+    <rPh sb="0" eb="2">
+      <t>カンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雇用</t>
+    <rPh sb="0" eb="2">
+      <t>コヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療・福祉</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地方財政</t>
+    <rPh sb="0" eb="2">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A02-1_（A02ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D01-1_（D01ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D02-1_（D02ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D03-1_（D03ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D04-1_（D04ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D05-1_（D05ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D06-1_（D06ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D07-1_（D07ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D08-1_（D08ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D09-1_（D09ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>D10-1_（D10ファイルに読み込まれるデータ）</t>
   </si>
 </sst>
 </file>
@@ -132,9 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -415,52 +556,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ルール.xlsx
+++ b/ルール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a4ff7438d9fef08/デスクトップ/卒論/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\.AKIHIRO\soturon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{6D472CAC-0F9C-44E0-9DDC-6C4382F40FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE95C5DC-307C-45E5-952C-D423432EEA23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE790A2D-25A9-4264-8890-9899BAC2A598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="-110" windowWidth="17650" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ファイル命名規則</t>
     <rPh sb="4" eb="8">
@@ -221,13 +221,21 @@
   </si>
   <si>
     <t>D10-1_（D10ファイルに読み込まれるデータ）</t>
+  </si>
+  <si>
+    <t>A9602@office365-23.de</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hUypYm5PAq4M2KMm</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +259,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,15 +285,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,13 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -703,8 +720,21 @@
         <v>20</v>
       </c>
     </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" xr:uid="{BAF8D547-80A3-4A1E-8E96-0A59D6FCB272}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>